--- a/original-app.xlsx
+++ b/original-app.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
     <sheet name="機能定義" sheetId="2" r:id="rId2"/>
+    <sheet name="テーブル定義" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -488,6 +489,435 @@
     <rPh sb="43" eb="45">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラムの意味</t>
+    <rPh sb="4" eb="6">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型一覧</t>
+    <rPh sb="0" eb="3">
+      <t>カタイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>文字列型</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>テキスト（不定長文字列）型</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>整数型</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>浮動小数点数型</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>固定長整数型</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>日時型</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>タイムスタンプ型</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>時刻型</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>日付型</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>バイナリ文字列型</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>真偽値型</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>他のテーブルへの外部キーの定義、_id が付いた整数</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材の名前</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材の個数・量</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材の単位</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beforedate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賞味期限</t>
+    <rPh sb="0" eb="4">
+      <t>ショウミキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入日</t>
+    <rPh sb="0" eb="3">
+      <t>コウニュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(auto increment)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyingdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理名</t>
+    <rPh sb="0" eb="3">
+      <t>リョウリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ingredient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用した食材一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調理方法</t>
+    <rPh sb="0" eb="4">
+      <t>チョウリホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真（画像保存場所のリンク先）</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ホゾンバショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感想・コメント・コツなどのメモ</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：users</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：recipes</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：foodstocks</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_digest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード（暗号化された）</t>
+    <rPh sb="6" eb="9">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：favorites</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foodstocks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：units</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>units</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extlink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クックパッドへのリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unitsのデータ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -518,7 +948,7 @@
       <name val="メイリオ"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +965,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,14 +1053,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -644,21 +1098,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="23">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1840,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="16.875" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0"/>
@@ -1860,7 +2333,7 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1872,10 +2345,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="117" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1997,7 +2470,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="16.875" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0"/>
@@ -2280,4 +2753,640 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="36.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13 D28:D31 D37:D39 D45:D46 D16:D23">
+      <formula1>$J$3:$J$14</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/original-app.xlsx
+++ b/original-app.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
   <si>
     <t>#</t>
   </si>
@@ -919,6 +919,18 @@
   <si>
     <t>unitsのデータ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rails g model units unit:string</t>
+  </si>
+  <si>
+    <t>rails g scaffold users name:string email:string password_digest:string</t>
+  </si>
+  <si>
+    <t>rails g scaffold recipes title:string recipe:text photo:string memo:text extlink:string</t>
+  </si>
+  <si>
+    <t>rails g scaffold foodstocks article:string quantity:float beforedate:date buyingdate:date</t>
   </si>
 </sst>
 </file>
@@ -948,7 +960,7 @@
       <name val="メイリオ"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,6 +982,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1096,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1100,13 +1118,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2345,10 +2364,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="117" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2760,7 +2779,7 @@
   <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -2776,30 +2795,33 @@
       <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
@@ -2833,7 +2855,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C5" t="s">
@@ -2853,7 +2875,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
@@ -2896,7 +2918,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" t="s">
+      <c r="B8" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C8" t="s">
@@ -2916,7 +2938,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" t="s">
+      <c r="B9" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
@@ -2986,6 +3008,9 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="J14" t="s">
         <v>71</v>
       </c>
@@ -2994,25 +3019,25 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3032,12 +3057,12 @@
       <c r="G16" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" t="s">
+      <c r="B17" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C17" t="s">
@@ -3074,7 +3099,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" t="s">
+      <c r="B19" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C19" t="s">
@@ -3091,7 +3116,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" t="s">
+      <c r="B20" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C20" t="s">
@@ -3105,21 +3130,21 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" t="s">
+      <c r="B21" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" t="s">
+      <c r="B22" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C22" t="s">
@@ -3153,27 +3178,30 @@
       <c r="B26" t="s">
         <v>100</v>
       </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3195,7 +3223,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" t="s">
+      <c r="B29" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="s">
@@ -3209,7 +3237,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" t="s">
+      <c r="B30" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C30" t="s">
@@ -3223,7 +3251,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" t="s">
+      <c r="B31" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C31" t="s">
@@ -3242,25 +3270,25 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3319,27 +3347,30 @@
       <c r="B43" t="s">
         <v>121</v>
       </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3361,7 +3392,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="B46" t="s">
+      <c r="B46" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C46" t="s">

--- a/original-app.xlsx
+++ b/original-app.xlsx
@@ -2779,7 +2779,7 @@
   <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>

--- a/original-app.xlsx
+++ b/original-app.xlsx
@@ -863,10 +863,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザid</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -875,15 +871,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>foodstocks</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -927,10 +915,23 @@
     <t>rails g scaffold users name:string email:string password_digest:string</t>
   </si>
   <si>
-    <t>rails g scaffold recipes title:string recipe:text photo:string memo:text extlink:string</t>
-  </si>
-  <si>
     <t>rails g scaffold foodstocks article:string quantity:float beforedate:date buyingdate:date</t>
+  </si>
+  <si>
+    <t>rails g scaffold recipes title:string ingredient:text recipe:text photo:string memo:text extlink:string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rails g model favorite user_id:integer recipe_id:integer</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1119,13 +1120,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2364,10 +2365,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="117" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2778,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -2796,7 +2797,7 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>48</v>
@@ -2855,7 +2856,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C5" t="s">
@@ -2875,7 +2876,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
@@ -2908,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
@@ -2918,7 +2919,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C8" t="s">
@@ -2938,7 +2939,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
@@ -2959,10 +2960,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
         <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -2971,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
         <v>63</v>
@@ -3009,7 +3010,7 @@
         <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
         <v>71</v>
@@ -3058,11 +3059,11 @@
         <v>87</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C17" t="s">
@@ -3079,7 +3080,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C18" t="s">
@@ -3091,15 +3092,12 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>120</v>
-      </c>
       <c r="J18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C19" t="s">
@@ -3116,7 +3114,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C20" t="s">
@@ -3130,7 +3128,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C21" t="s">
@@ -3144,11 +3142,11 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="18" t="s">
-        <v>125</v>
+      <c r="B22" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -3159,10 +3157,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -3171,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3179,7 +3177,7 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3223,7 +3221,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="s">
@@ -3237,7 +3235,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C30" t="s">
@@ -3251,7 +3249,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C31" t="s">
@@ -3268,6 +3266,9 @@
       <c r="B35" t="s">
         <v>108</v>
       </c>
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="15" t="s">
@@ -3345,10 +3346,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3392,11 +3393,11 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="B46" s="18" t="s">
-        <v>122</v>
+      <c r="B46" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>

--- a/original-app.xlsx
+++ b/original-app.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="142">
   <si>
     <t>#</t>
   </si>
@@ -933,12 +933,67 @@
     <t>rails g model favorite user_id:integer recipe_id:integer</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テーブル名：ingredients</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材の数量</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピのid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rails g model ingredients article:string quantity:string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除:ingredientsテーブルに移動</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rails g migration RemoveIngredientFromRecipes ingredient:text</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -960,8 +1015,16 @@
       <color theme="11"/>
       <name val="メイリオ"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +1053,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1072,7 +1140,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1096,8 +1164,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1127,8 +1206,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="29" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="34">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1140,6 +1220,12 @@
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1152,6 +1238,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="33" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2777,16 +2868,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K46"/>
+  <dimension ref="A2:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="36.875" bestFit="1" customWidth="1"/>
@@ -2998,6 +3089,9 @@
       </c>
     </row>
     <row r="13" spans="1:11">
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="J13" t="s">
         <v>69</v>
       </c>
@@ -3010,7 +3104,7 @@
         <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
         <v>71</v>
@@ -3079,18 +3173,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="1:10" ht="20">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E18" t="b">
+      <c r="E18" s="19" t="b">
         <v>1</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" t="s">
+        <v>140</v>
       </c>
       <c r="J18" t="s">
         <v>80</v>
@@ -3406,10 +3506,103 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:7">
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13 D28:D31 D37:D39 D45:D46 D16:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13 D28:D31 D37:D39 D45:D46 D16:D23 D52:D54">
       <formula1>$J$3:$J$14</formula1>
     </dataValidation>
   </dataValidations>
